--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref003_コメント一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref003_コメント一覧取得.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">レスポンス!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(コメント一覧取得)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BU$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(コメント一覧取得)'!$A$1:$BV$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -510,6 +510,14 @@
   </si>
   <si>
     <t>createDatetime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>userThumbnailUrl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザサムネイルURL</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -834,7 +842,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -842,6 +850,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -863,7 +881,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1001,6 +1019,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,6 +1088,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1040,23 +1109,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1067,20 +1121,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="33">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
@@ -1091,6 +1139,11 @@
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
@@ -1104,6 +1157,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1143,7 +1201,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1220,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1227,7 +1285,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1292,7 +1350,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1357,7 +1415,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,7 +1480,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1487,7 +1545,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1552,7 +1610,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1624,7 +1682,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1696,7 +1754,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1768,7 +1826,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1840,7 +1898,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1912,7 +1970,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2005,7 +2063,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2082,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2089,7 +2147,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2154,7 +2212,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2219,7 +2277,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2284,7 +2342,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2349,7 +2407,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2414,7 +2472,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2486,7 +2544,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2558,7 +2616,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2630,7 +2688,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2702,7 +2760,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2774,7 +2832,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2867,7 +2925,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,7 +2944,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2951,7 +3009,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3016,7 +3074,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3081,7 +3139,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3146,7 +3204,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3211,7 +3269,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3271,12 +3329,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="$BW$3">
+      <xdr:sp macro="" textlink="$BX$3">
         <xdr:nvSpPr>
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3343,12 +3401,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="$BX$3">
+      <xdr:sp macro="" textlink="$BY$3">
         <xdr:nvSpPr>
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3415,12 +3473,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="$BY$3">
+      <xdr:sp macro="" textlink="$BZ$3">
         <xdr:nvSpPr>
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3487,12 +3545,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="$BZ$3">
+      <xdr:sp macro="" textlink="$CA$3">
         <xdr:nvSpPr>
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3559,12 +3617,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="$CA$3">
+      <xdr:sp macro="" textlink="$CB$3">
         <xdr:nvSpPr>
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3631,12 +3689,12 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="$CB$3">
+      <xdr:sp macro="" textlink="$CC$3">
         <xdr:nvSpPr>
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4047,33 +4105,33 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="D12" s="66"/>
+      <c r="D12" s="54"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4133,33 +4191,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="49">
+      <c r="AO27" s="62">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43472</v>
       </c>
-      <c r="AP27" s="50"/>
-      <c r="AQ27" s="50"/>
-      <c r="AR27" s="50"/>
-      <c r="AS27" s="50"/>
-      <c r="AT27" s="50"/>
-      <c r="AU27" s="50"/>
-      <c r="AV27" s="50"/>
-      <c r="AW27" s="50"/>
-      <c r="AX27" s="50"/>
-      <c r="AY27" s="50"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="63"/>
+      <c r="AW27" s="63"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="51" t="str">
+      <c r="AR28" s="64" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
         <v>0.0.1</v>
       </c>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="51"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="51"/>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="51"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4203,7 +4261,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="66"/>
+      <c r="A1" s="54"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4501,13 +4559,13 @@
       <c r="AH11" s="19"/>
     </row>
     <row r="12" spans="2:81" ht="19">
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="48" t="s">
         <v>57</v>
       </c>
@@ -4796,67 +4854,67 @@
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="56">
+      <c r="C9" s="69">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56" t="s">
+      <c r="D9" s="69"/>
+      <c r="E9" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56" t="s">
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56" t="s">
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56" t="s">
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="57" t="s">
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="58"/>
-      <c r="AS9" s="58"/>
-      <c r="AT9" s="58"/>
-      <c r="AU9" s="58"/>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="58"/>
-      <c r="AX9" s="58"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="71"/>
+      <c r="AX9" s="71"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -4865,69 +4923,69 @@
       </c>
     </row>
     <row r="10" spans="2:81" ht="19" customHeight="1">
-      <c r="C10" s="56">
+      <c r="C10" s="69">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56" t="s">
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56" t="s">
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="57" t="s">
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="58" t="s">
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="58"/>
-      <c r="AT10" s="58"/>
-      <c r="AU10" s="58"/>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="58"/>
-      <c r="AX10" s="58"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
       <c r="BX10" s="9" t="s">
         <v>42</v>
       </c>
@@ -5010,64 +5068,65 @@
       <c r="AX13" s="19"/>
     </row>
     <row r="14" spans="2:81">
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="58"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="71"/>
+      <c r="AX14" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:R10"/>
     <mergeCell ref="AG14:AH14"/>
     <mergeCell ref="AI14:AX14"/>
     <mergeCell ref="S9:Y9"/>
@@ -5078,12 +5137,11 @@
     <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="AG10:AH10"/>
     <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -5107,82 +5165,82 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:CB42"/>
+  <dimension ref="B1:CC42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="0.875" style="9" customWidth="1"/>
-    <col min="2" max="73" width="3.125" style="9" customWidth="1"/>
-    <col min="74" max="74" width="3.125" style="9"/>
-    <col min="75" max="81" width="8.625" style="9" customWidth="1"/>
-    <col min="82" max="16384" width="3.125" style="9"/>
+    <col min="2" max="74" width="3.125" style="9" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="9"/>
+    <col min="76" max="82" width="8.625" style="9" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:80" ht="6.75" customHeight="1"/>
-    <row r="2" spans="2:80">
-      <c r="BW2" s="10" t="s">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
+      <c r="BX2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BX2" s="10" t="s">
+      <c r="BY2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="BY2" s="10" t="s">
+      <c r="BZ2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="BZ2" s="10" t="s">
+      <c r="CA2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="CA2" s="10" t="s">
+      <c r="CB2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="CB2" s="10" t="s">
+      <c r="CC2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:80">
-      <c r="BW3" s="10" t="s">
+    <row r="3" spans="2:81">
+      <c r="BX3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BX3" s="9" t="str">
+      <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
         <v>【eternal】API仕様書_Ref003_コメント一覧取得</v>
       </c>
-      <c r="BY3" s="11">
+      <c r="BZ3" s="11">
         <v>43434</v>
       </c>
-      <c r="BZ3" s="10" t="s">
+      <c r="CA3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="CA3" s="11">
+      <c r="CB3" s="11">
         <v>43467</v>
       </c>
-      <c r="CB3" s="10" t="s">
+      <c r="CC3" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:80" ht="18" customHeight="1"/>
-    <row r="6" spans="2:80">
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
       <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:80">
+    <row r="7" spans="2:81">
       <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="BW7" s="9" t="s">
+      <c r="BX7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="BZ7" s="9" t="s">
+      <c r="CA7" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:80">
+    <row r="8" spans="2:81">
       <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
@@ -5227,10 +5285,10 @@
       <c r="AH8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AI8" s="18" t="s">
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="24"/>
       <c r="AK8" s="24"/>
       <c r="AL8" s="24"/>
       <c r="AM8" s="24"/>
@@ -5244,153 +5302,156 @@
       <c r="AU8" s="24"/>
       <c r="AV8" s="24"/>
       <c r="AW8" s="24"/>
-      <c r="AX8" s="19"/>
-      <c r="BW8" s="9" t="s">
+      <c r="AX8" s="24"/>
+      <c r="AY8" s="19"/>
+      <c r="BX8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BZ8" s="9" t="s">
+      <c r="CA8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:80">
+    <row r="9" spans="2:81">
       <c r="C9" s="29">
         <v>1</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="63" t="s">
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="65" t="s">
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65" t="s">
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="BW9" s="9" t="s">
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="BZ9" s="9" t="s">
+      <c r="CA9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:80">
+    <row r="10" spans="2:81">
       <c r="C10" s="32"/>
       <c r="D10" s="33">
         <v>2</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="71" t="s">
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="68" t="s">
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="68" t="s">
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="70"/>
-      <c r="AH10" s="67" t="s">
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="60"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="61"/>
-      <c r="BW10" s="9" t="s">
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="78"/>
+      <c r="BX10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="BZ10" s="9" t="s">
+      <c r="CA10" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:80">
-      <c r="C11" s="73"/>
-      <c r="D11" s="72">
+    <row r="11" spans="2:81">
+      <c r="C11" s="60"/>
+      <c r="D11" s="59">
         <v>4</v>
       </c>
       <c r="E11" s="25"/>
@@ -5430,11 +5491,11 @@
       <c r="AE11" s="46"/>
       <c r="AF11" s="46"/>
       <c r="AG11" s="47"/>
-      <c r="AH11" s="67" t="s">
+      <c r="AH11" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="40"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="39"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
       <c r="AM11" s="40"/>
@@ -5448,17 +5509,18 @@
       <c r="AU11" s="40"/>
       <c r="AV11" s="40"/>
       <c r="AW11" s="40"/>
-      <c r="AX11" s="41"/>
-      <c r="BW11" s="9" t="s">
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="41"/>
+      <c r="BX11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="BZ11" s="9" t="s">
+      <c r="CA11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:80">
-      <c r="C12" s="73"/>
-      <c r="D12" s="72">
+    <row r="12" spans="2:81">
+      <c r="C12" s="60"/>
+      <c r="D12" s="59">
         <v>5</v>
       </c>
       <c r="E12" s="25"/>
@@ -5498,11 +5560,11 @@
       <c r="AE12" s="46"/>
       <c r="AF12" s="46"/>
       <c r="AG12" s="47"/>
-      <c r="AH12" s="67" t="s">
+      <c r="AH12" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="40"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="39"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
       <c r="AM12" s="40"/>
@@ -5516,19 +5578,20 @@
       <c r="AU12" s="40"/>
       <c r="AV12" s="40"/>
       <c r="AW12" s="40"/>
-      <c r="AX12" s="41"/>
-      <c r="BZ12" s="9" t="s">
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="41"/>
+      <c r="CA12" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:80">
-      <c r="C13" s="74"/>
-      <c r="D13" s="72">
+    <row r="13" spans="2:81">
+      <c r="C13" s="60"/>
+      <c r="D13" s="59">
         <v>6</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -5537,7 +5600,7 @@
       <c r="K13" s="42"/>
       <c r="L13" s="43"/>
       <c r="M13" s="44" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -5563,11 +5626,11 @@
       <c r="AE13" s="46"/>
       <c r="AF13" s="46"/>
       <c r="AG13" s="47"/>
-      <c r="AH13" s="67" t="s">
+      <c r="AH13" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="40"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="39"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
       <c r="AM13" s="40"/>
@@ -5581,28 +5644,101 @@
       <c r="AU13" s="40"/>
       <c r="AV13" s="40"/>
       <c r="AW13" s="40"/>
-      <c r="AX13" s="41"/>
-      <c r="BZ13" s="9" t="s">
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="41"/>
+      <c r="CA13" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:81">
+      <c r="C14" s="61"/>
+      <c r="D14" s="59">
+        <v>7</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+      <c r="AR14" s="50"/>
+      <c r="AS14" s="50"/>
+      <c r="AT14" s="50"/>
+      <c r="AU14" s="50"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="51"/>
+      <c r="CA14" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" ht="19" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="AI9:AX9"/>
+  <mergeCells count="16">
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AJ10:AY10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AJ9:AY9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="M9:S9"/>
     <mergeCell ref="T9:Z9"/>
     <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH9:AI9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AH13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI9 AH9:AH14">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref003_コメント一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref003_コメント一覧取得.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -392,19 +392,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>取得数の最大値</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>サイダイチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BigDecimal</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -518,6 +505,40 @@
   </si>
   <si>
     <t>ユーザサムネイルURL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>取得数の最大値（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TODO:「リクエストを無限スクロールするために必要な項目を確認する」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイダイチ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -531,7 +552,7 @@
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +668,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <charset val="128"/>
     </font>
@@ -842,7 +869,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -850,6 +877,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -881,7 +910,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1085,50 +1114,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="35">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
@@ -1144,6 +1188,7 @@
     <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
@@ -1162,6 +1207,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1201,7 +1247,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1266,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1285,7 +1331,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1350,7 +1396,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1461,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1480,7 +1526,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1545,7 +1591,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1610,7 +1656,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1682,7 +1728,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1754,7 +1800,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1826,7 +1872,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1898,7 +1944,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1970,7 +2016,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2063,7 +2109,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2128,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2147,7 +2193,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2212,7 +2258,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2277,7 +2323,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2342,7 +2388,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2407,7 +2453,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2472,7 +2518,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2544,7 +2590,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2616,7 +2662,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2688,7 +2734,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2760,7 +2806,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2832,7 +2878,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2925,7 +2971,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2990,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3009,7 +3055,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3074,7 +3120,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3139,7 +3185,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3204,7 +3250,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3269,7 +3315,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3334,7 +3380,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3406,7 +3452,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3478,7 +3524,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3550,7 +3596,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3622,7 +3668,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3694,7 +3740,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4306,7 +4352,7 @@
         <v>43472</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4448,7 +4494,7 @@
   </sheetPr>
   <dimension ref="B1:CC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4501,7 +4547,7 @@
         <v>43467</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -4512,7 +4558,7 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:81">
@@ -4567,7 +4613,7 @@
       <c r="F12" s="67"/>
       <c r="G12" s="68"/>
       <c r="H12" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -4652,7 +4698,7 @@
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -4669,7 +4715,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="17"/>
       <c r="T17" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -4714,7 +4760,7 @@
   </sheetPr>
   <dimension ref="B1:CC14"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4751,7 +4797,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4761,7 +4807,7 @@
         <v>43107</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CB3" s="11"/>
       <c r="CC3" s="10"/>
@@ -4828,24 +4874,31 @@
         <v>13</v>
       </c>
       <c r="AH8" s="19"/>
-      <c r="AI8" s="18" t="s">
+      <c r="AI8" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="24"/>
-      <c r="AT8" s="24"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="24"/>
-      <c r="AX8" s="19"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
+      <c r="BA8" s="88"/>
+      <c r="BB8" s="88"/>
+      <c r="BC8" s="88"/>
+      <c r="BD8" s="88"/>
+      <c r="BE8" s="88"/>
       <c r="BX8" s="9" t="s">
         <v>36</v>
       </c>
@@ -4860,7 +4913,7 @@
       </c>
       <c r="D9" s="69"/>
       <c r="E9" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="69"/>
       <c r="G9" s="69"/>
@@ -4869,7 +4922,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
       <c r="L9" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="69"/>
       <c r="N9" s="69"/>
@@ -4896,25 +4949,33 @@
       <c r="AE9" s="69"/>
       <c r="AF9" s="69"/>
       <c r="AG9" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AH9" s="70"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="71"/>
-      <c r="AP9" s="71"/>
-      <c r="AQ9" s="71"/>
-      <c r="AR9" s="71"/>
-      <c r="AS9" s="71"/>
-      <c r="AT9" s="71"/>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="71"/>
-      <c r="AW9" s="71"/>
-      <c r="AX9" s="71"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="89"/>
+      <c r="BB9" s="89"/>
+      <c r="BC9" s="89"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="89"/>
+      <c r="BF9" s="87"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -4968,24 +5029,31 @@
         <v>39</v>
       </c>
       <c r="AH10" s="70"/>
-      <c r="AI10" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="71"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="71"/>
-      <c r="AX10" s="71"/>
+      <c r="AI10" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="85"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="85"/>
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="85"/>
+      <c r="BE10" s="86"/>
       <c r="BX10" s="9" t="s">
         <v>42</v>
       </c>
@@ -5048,24 +5116,31 @@
         <v>13</v>
       </c>
       <c r="AH13" s="19"/>
-      <c r="AI13" s="18" t="s">
+      <c r="AI13" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="19"/>
+      <c r="AJ13" s="88"/>
+      <c r="AK13" s="88"/>
+      <c r="AL13" s="88"/>
+      <c r="AM13" s="88"/>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="88"/>
+      <c r="AP13" s="88"/>
+      <c r="AQ13" s="88"/>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="88"/>
+      <c r="AT13" s="88"/>
+      <c r="AU13" s="88"/>
+      <c r="AV13" s="88"/>
+      <c r="AW13" s="88"/>
+      <c r="AX13" s="88"/>
+      <c r="AY13" s="88"/>
+      <c r="AZ13" s="88"/>
+      <c r="BA13" s="88"/>
+      <c r="BB13" s="88"/>
+      <c r="BC13" s="88"/>
+      <c r="BD13" s="88"/>
+      <c r="BE13" s="88"/>
     </row>
     <row r="14" spans="2:81">
       <c r="C14" s="69" t="s">
@@ -5102,46 +5177,55 @@
       <c r="AF14" s="69"/>
       <c r="AG14" s="70"/>
       <c r="AH14" s="70"/>
-      <c r="AI14" s="71"/>
-      <c r="AJ14" s="71"/>
-      <c r="AK14" s="71"/>
-      <c r="AL14" s="71"/>
-      <c r="AM14" s="71"/>
-      <c r="AN14" s="71"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="71"/>
-      <c r="AQ14" s="71"/>
-      <c r="AR14" s="71"/>
-      <c r="AS14" s="71"/>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="71"/>
-      <c r="AV14" s="71"/>
-      <c r="AW14" s="71"/>
-      <c r="AX14" s="71"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="89"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="89"/>
+      <c r="AN14" s="89"/>
+      <c r="AO14" s="89"/>
+      <c r="AP14" s="89"/>
+      <c r="AQ14" s="89"/>
+      <c r="AR14" s="89"/>
+      <c r="AS14" s="89"/>
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="89"/>
+      <c r="AV14" s="89"/>
+      <c r="AW14" s="89"/>
+      <c r="AX14" s="89"/>
+      <c r="AY14" s="89"/>
+      <c r="AZ14" s="89"/>
+      <c r="BA14" s="89"/>
+      <c r="BB14" s="89"/>
+      <c r="BC14" s="89"/>
+      <c r="BD14" s="89"/>
+      <c r="BE14" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="AI8:BE8"/>
+    <mergeCell ref="AI13:BE13"/>
+    <mergeCell ref="AI14:BE14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:Y14"/>
+    <mergeCell ref="Z14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:BE10"/>
+    <mergeCell ref="AI9:BE9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="L9:R9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:K10"/>
     <mergeCell ref="L10:R10"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AX14"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="Z10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="Z14:AF14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -5220,7 +5304,7 @@
         <v>43467</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -5317,62 +5401,62 @@
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="75" t="s">
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="72"/>
-      <c r="AR9" s="72"/>
-      <c r="AS9" s="72"/>
-      <c r="AT9" s="72"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="72"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="72"/>
-      <c r="AY9" s="72"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="82"/>
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="82"/>
+      <c r="AY9" s="82"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -5386,62 +5470,62 @@
         <v>2</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="80" t="s">
+      <c r="F10" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="83" t="s">
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="78"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="73"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="75"/>
       <c r="BX10" s="9" t="s">
         <v>42</v>
       </c>
@@ -5456,7 +5540,7 @@
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -5465,7 +5549,7 @@
       <c r="K11" s="42"/>
       <c r="L11" s="43"/>
       <c r="M11" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -5491,10 +5575,10 @@
       <c r="AE11" s="46"/>
       <c r="AF11" s="46"/>
       <c r="AG11" s="47"/>
-      <c r="AH11" s="83" t="s">
+      <c r="AH11" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI11" s="84"/>
+      <c r="AI11" s="72"/>
       <c r="AJ11" s="39"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
@@ -5525,7 +5609,7 @@
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
@@ -5534,7 +5618,7 @@
       <c r="K12" s="42"/>
       <c r="L12" s="43"/>
       <c r="M12" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
@@ -5560,10 +5644,10 @@
       <c r="AE12" s="46"/>
       <c r="AF12" s="46"/>
       <c r="AG12" s="47"/>
-      <c r="AH12" s="83" t="s">
+      <c r="AH12" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI12" s="84"/>
+      <c r="AI12" s="72"/>
       <c r="AJ12" s="39"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
@@ -5591,7 +5675,7 @@
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -5600,7 +5684,7 @@
       <c r="K13" s="42"/>
       <c r="L13" s="43"/>
       <c r="M13" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -5626,10 +5710,10 @@
       <c r="AE13" s="46"/>
       <c r="AF13" s="46"/>
       <c r="AG13" s="47"/>
-      <c r="AH13" s="83" t="s">
+      <c r="AH13" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="84"/>
+      <c r="AI13" s="72"/>
       <c r="AJ13" s="39"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
@@ -5657,7 +5741,7 @@
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -5666,7 +5750,7 @@
       <c r="K14" s="52"/>
       <c r="L14" s="53"/>
       <c r="M14" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
@@ -5692,10 +5776,10 @@
       <c r="AE14" s="56"/>
       <c r="AF14" s="56"/>
       <c r="AG14" s="57"/>
-      <c r="AH14" s="83" t="s">
+      <c r="AH14" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI14" s="84"/>
+      <c r="AI14" s="72"/>
       <c r="AJ14" s="49"/>
       <c r="AK14" s="50"/>
       <c r="AL14" s="50"/>
@@ -5719,22 +5803,22 @@
     <row r="42" ht="19" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ10:AY10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
     <mergeCell ref="AJ9:AY9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="M9:S9"/>
     <mergeCell ref="T9:Z9"/>
     <mergeCell ref="AA9:AG9"/>
     <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ10:AY10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AH13:AI13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref003_コメント一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref003_コメント一覧取得.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246C3B1E-8641-4AD3-A513-2C28EDC9FF44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13880" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -20,9 +21,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">リクエスト!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">レスポンス!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(コメント一覧取得)'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(コメント一覧取得)'!$A$1:$BV$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(コメント一覧取得)'!$A$1:$BV$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">リクエスト!$1:$4</definedName>
@@ -38,20 +39,20 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -359,14 +360,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Ref_002</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Ref_002</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>maxCount</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -403,10 +396,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>List&lt;Category&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>hiima/api/internal/v1/commentList</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -442,10 +431,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Ref_003</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>トークテーマID</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -481,25 +466,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>登録日時</t>
-    <rPh sb="0" eb="4">
-      <t>トウロクニチジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>userName</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>createDatetime</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>userThumbnailUrl</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -508,28 +478,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>取得数の最大値（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TODO:「リクエストを無限スクロールするために必要な項目を確認する」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>TODO:「リクエストを無限スクロールするために必要な項目を確認する」</t>
+  </si>
+  <si>
+    <t>取得数の最大値</t>
     <rPh sb="0" eb="2">
       <t>シュトク</t>
     </rPh>
@@ -539,20 +491,105 @@
     <rPh sb="4" eb="7">
       <t>サイダイチ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>List&lt;Comment&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>投稿日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>postDatetime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LocalDatetime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レスポンス
+・コメントリストの型がList&lt;Category&gt;になってたので修正
+・ユーザーサムネイルURLを必須「N」に修正
+・項番のずれを修正
+・投稿日時のjava型をLocalDatetimeに修正</t>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ref003</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;改訂日 &quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;バージョン &quot;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,17 +701,20 @@
     <font>
       <sz val="11"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -704,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -836,15 +876,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -910,7 +941,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1063,9 +1094,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1081,10 +1109,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1109,12 +1152,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1152,24 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -1190,8 +1230,8 @@
     <cellStyle name="ハイパーリンク" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
@@ -1247,7 +1287,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,8 +1295,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106455" y="116731"/>
-          <a:ext cx="22848796" cy="547601"/>
+          <a:off x="82643" y="120700"/>
+          <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
         </a:xfrm>
@@ -1266,7 +1306,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1331,7 +1371,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1396,7 +1436,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1461,7 +1501,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1526,7 +1566,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1591,7 +1631,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1656,7 +1696,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1710,7 +1750,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>Ref_002</a:t>
+              <a:t>Ref003</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1728,7 +1768,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1800,7 +1840,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1854,7 +1894,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>18年12月15日 土曜日</a:t>
+              <a:t>2018年12月15日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1872,7 +1912,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1944,7 +1984,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1998,7 +2038,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>19年1月2日 水曜日</a:t>
+              <a:t>2019年1月2日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2016,7 +2056,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2109,7 +2149,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,8 +2157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106455" y="116731"/>
-          <a:ext cx="22848796" cy="547601"/>
+          <a:off x="82643" y="120700"/>
+          <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
         </a:xfrm>
@@ -2128,7 +2168,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2193,7 +2233,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2258,7 +2298,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2323,7 +2363,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2388,7 +2428,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2453,7 +2493,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2518,7 +2558,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2572,7 +2612,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>Ref_003</a:t>
+              <a:t>Ref003</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2590,7 +2630,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2662,7 +2702,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2716,7 +2756,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>18年1月7日 日曜日</a:t>
+              <a:t>2018年1月7日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2734,7 +2774,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2806,7 +2846,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2878,7 +2918,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2971,7 +3011,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,8 +3019,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106455" y="116731"/>
-          <a:ext cx="22848796" cy="547601"/>
+          <a:off x="82643" y="120700"/>
+          <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
         </a:xfrm>
@@ -2990,7 +3030,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3055,7 +3095,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3120,7 +3160,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3185,7 +3225,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3250,7 +3290,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3315,7 +3355,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3380,7 +3420,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3434,7 +3474,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>Ref_002</a:t>
+              <a:t>Ref003</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3452,7 +3492,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3524,7 +3564,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3578,7 +3618,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>18年11月30日 金曜日</a:t>
+              <a:t>2019年1月6日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3596,7 +3636,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3650,7 +3690,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>柴</a:t>
+              <a:t>中村</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3668,7 +3708,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3722,7 +3762,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>19年1月2日 水曜日</a:t>
+              <a:t>2019年1月14日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3740,7 +3780,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3814,7 +3854,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="変更履歴"/>
@@ -4122,15 +4162,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.125" style="1"/>
@@ -4141,43 +4181,44 @@
     <row r="1" spans="1:26">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:26" ht="25">
+    <row r="2" spans="1:26" ht="24.75">
       <c r="B2" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="34">
+    <row r="10" spans="1:26" ht="35.25">
       <c r="C10" s="3" t="str">
         <f ca="1">SUBSTITUTE(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("]",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1),".xlsx","")</f>
         <v>【eternal】API仕様書_Ref003_コメント一覧取得</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="D12" s="54"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4231,39 +4272,39 @@
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="2:51" ht="19">
+    <row r="22" spans="2:51" ht="19.5">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="62">
+      <c r="AO27" s="66">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43472</v>
-      </c>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
+        <v>43479</v>
+      </c>
+      <c r="AP27" s="67"/>
+      <c r="AQ27" s="67"/>
+      <c r="AR27" s="67"/>
+      <c r="AS27" s="67"/>
+      <c r="AT27" s="67"/>
+      <c r="AU27" s="67"/>
+      <c r="AV27" s="67"/>
+      <c r="AW27" s="67"/>
+      <c r="AX27" s="67"/>
+      <c r="AY27" s="67"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="64" t="str">
+      <c r="AR28" s="68" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.1</v>
-      </c>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
-      <c r="AY28" s="64"/>
+        <v>1.0.0</v>
+      </c>
+      <c r="AS28" s="68"/>
+      <c r="AT28" s="68"/>
+      <c r="AU28" s="68"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="68"/>
+      <c r="AX28" s="68"/>
+      <c r="AY28" s="68"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4277,7 +4318,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4287,15 +4328,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="38" customWidth="1"/>
@@ -4307,7 +4348,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="54"/>
+      <c r="A1" s="64"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4352,14 +4393,22 @@
         <v>43472</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="93.75">
+      <c r="B6" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="36">
+        <v>43479</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="34"/>
@@ -4478,7 +4527,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4488,18 +4537,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:CC17"/>
+  <dimension ref="B1:CC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="0.875" style="9" customWidth="1"/>
     <col min="2" max="74" width="3.125" style="9" customWidth="1"/>
@@ -4531,7 +4580,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4547,7 +4596,7 @@
         <v>43467</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -4558,193 +4607,193 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81">
-      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:81" ht="19">
-      <c r="C11" s="23" t="s">
+    <row r="10" spans="2:81" ht="19.5">
+      <c r="C10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="23" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="19"/>
-    </row>
-    <row r="12" spans="2:81" ht="19">
-      <c r="C12" s="66" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="2:81" ht="19.5">
+      <c r="C11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="48" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="14"/>
+    </row>
+    <row r="13" spans="2:81">
+      <c r="B13" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:81">
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:81">
+      <c r="C15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="22"/>
+    </row>
+    <row r="16" spans="2:81">
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="14"/>
-    </row>
-    <row r="14" spans="2:81">
-      <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:81">
-      <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:81">
-      <c r="C16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="22"/>
-    </row>
-    <row r="17" spans="3:34">
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="17"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4754,18 +4803,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="0.875" style="9" customWidth="1"/>
     <col min="2" max="74" width="3.125" style="9" customWidth="1"/>
@@ -4797,7 +4846,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4807,7 +4856,7 @@
         <v>43107</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="CB3" s="11"/>
       <c r="CC3" s="10"/>
@@ -4874,31 +4923,31 @@
         <v>13</v>
       </c>
       <c r="AH8" s="19"/>
-      <c r="AI8" s="88" t="s">
+      <c r="AI8" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="88"/>
-      <c r="BA8" s="88"/>
-      <c r="BB8" s="88"/>
-      <c r="BC8" s="88"/>
-      <c r="BD8" s="88"/>
-      <c r="BE8" s="88"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="75"/>
       <c r="BX8" s="9" t="s">
         <v>36</v>
       </c>
@@ -4907,75 +4956,75 @@
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="69">
+      <c r="C9" s="74">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69" t="s">
+      <c r="D9" s="74"/>
+      <c r="E9" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69" t="s">
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="89"/>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="89"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="89"/>
-      <c r="BB9" s="89"/>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="89"/>
-      <c r="BE9" s="89"/>
-      <c r="BF9" s="87"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="73"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73"/>
+      <c r="AY9" s="73"/>
+      <c r="AZ9" s="73"/>
+      <c r="BA9" s="73"/>
+      <c r="BB9" s="73"/>
+      <c r="BC9" s="73"/>
+      <c r="BD9" s="73"/>
+      <c r="BE9" s="73"/>
+      <c r="BF9" s="62"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -4983,77 +5032,80 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:81" ht="19" customHeight="1">
-      <c r="C10" s="69">
+    <row r="10" spans="2:81" ht="18.95" customHeight="1">
+      <c r="C10" s="74">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69" t="s">
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="70" t="s">
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="AH10" s="70"/>
-      <c r="AI10" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="85"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="85"/>
-      <c r="AY10" s="85"/>
-      <c r="AZ10" s="85"/>
-      <c r="BA10" s="85"/>
-      <c r="BB10" s="85"/>
-      <c r="BC10" s="85"/>
-      <c r="BD10" s="85"/>
-      <c r="BE10" s="86"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="78"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="78"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="63" t="s">
+        <v>70</v>
+      </c>
       <c r="BX10" s="9" t="s">
         <v>42</v>
       </c>
@@ -5116,90 +5168,90 @@
         <v>13</v>
       </c>
       <c r="AH13" s="19"/>
-      <c r="AI13" s="88" t="s">
+      <c r="AI13" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AJ13" s="88"/>
-      <c r="AK13" s="88"/>
-      <c r="AL13" s="88"/>
-      <c r="AM13" s="88"/>
-      <c r="AN13" s="88"/>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="88"/>
-      <c r="AQ13" s="88"/>
-      <c r="AR13" s="88"/>
-      <c r="AS13" s="88"/>
-      <c r="AT13" s="88"/>
-      <c r="AU13" s="88"/>
-      <c r="AV13" s="88"/>
-      <c r="AW13" s="88"/>
-      <c r="AX13" s="88"/>
-      <c r="AY13" s="88"/>
-      <c r="AZ13" s="88"/>
-      <c r="BA13" s="88"/>
-      <c r="BB13" s="88"/>
-      <c r="BC13" s="88"/>
-      <c r="BD13" s="88"/>
-      <c r="BE13" s="88"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="75"/>
+      <c r="AP13" s="75"/>
+      <c r="AQ13" s="75"/>
+      <c r="AR13" s="75"/>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="75"/>
+      <c r="AU13" s="75"/>
+      <c r="AV13" s="75"/>
+      <c r="AW13" s="75"/>
+      <c r="AX13" s="75"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="75"/>
+      <c r="BA13" s="75"/>
+      <c r="BB13" s="75"/>
+      <c r="BC13" s="75"/>
+      <c r="BD13" s="75"/>
+      <c r="BE13" s="75"/>
     </row>
     <row r="14" spans="2:81">
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="89"/>
-      <c r="AN14" s="89"/>
-      <c r="AO14" s="89"/>
-      <c r="AP14" s="89"/>
-      <c r="AQ14" s="89"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="89"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="89"/>
-      <c r="AV14" s="89"/>
-      <c r="AW14" s="89"/>
-      <c r="AX14" s="89"/>
-      <c r="AY14" s="89"/>
-      <c r="AZ14" s="89"/>
-      <c r="BA14" s="89"/>
-      <c r="BB14" s="89"/>
-      <c r="BC14" s="89"/>
-      <c r="BD14" s="89"/>
-      <c r="BE14" s="89"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="73"/>
+      <c r="AK14" s="73"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="73"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="73"/>
+      <c r="AS14" s="73"/>
+      <c r="AT14" s="73"/>
+      <c r="AU14" s="73"/>
+      <c r="AV14" s="73"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="73"/>
+      <c r="AY14" s="73"/>
+      <c r="AZ14" s="73"/>
+      <c r="BA14" s="73"/>
+      <c r="BB14" s="73"/>
+      <c r="BC14" s="73"/>
+      <c r="BD14" s="73"/>
+      <c r="BE14" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -5229,13 +5281,13 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG14:AH14 AG9:AH10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG14:AH14 AG9:AH10" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5245,18 +5297,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S42" sqref="S42"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="0.875" style="9" customWidth="1"/>
     <col min="2" max="74" width="3.125" style="9" customWidth="1"/>
@@ -5288,23 +5340,23 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
         <v>【eternal】API仕様書_Ref003_コメント一覧取得</v>
       </c>
       <c r="BZ3" s="11">
-        <v>43434</v>
+        <v>43471</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="CB3" s="11">
-        <v>43467</v>
+        <v>43479</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -5401,62 +5453,62 @@
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="83" t="s">
+      <c r="F9" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="82"/>
-      <c r="AL9" s="82"/>
-      <c r="AM9" s="82"/>
-      <c r="AN9" s="82"/>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="82"/>
-      <c r="AQ9" s="82"/>
-      <c r="AR9" s="82"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="82"/>
-      <c r="AU9" s="82"/>
-      <c r="AV9" s="82"/>
-      <c r="AW9" s="82"/>
-      <c r="AX9" s="82"/>
-      <c r="AY9" s="82"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -5467,65 +5519,65 @@
     <row r="10" spans="2:81">
       <c r="C10" s="32"/>
       <c r="D10" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="80"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="71" t="s">
+      <c r="F10" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="75"/>
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="83"/>
+      <c r="AV10" s="83"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="84"/>
       <c r="BX10" s="9" t="s">
         <v>42</v>
       </c>
@@ -5534,13 +5586,13 @@
       </c>
     </row>
     <row r="11" spans="2:81">
-      <c r="C11" s="60"/>
-      <c r="D11" s="59">
-        <v>4</v>
+      <c r="C11" s="59"/>
+      <c r="D11" s="58">
+        <v>2</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -5549,7 +5601,7 @@
       <c r="K11" s="42"/>
       <c r="L11" s="43"/>
       <c r="M11" s="44" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -5575,10 +5627,10 @@
       <c r="AE11" s="46"/>
       <c r="AF11" s="46"/>
       <c r="AG11" s="47"/>
-      <c r="AH11" s="71" t="s">
+      <c r="AH11" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="AI11" s="72"/>
+      <c r="AI11" s="81"/>
       <c r="AJ11" s="39"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
@@ -5603,13 +5655,13 @@
       </c>
     </row>
     <row r="12" spans="2:81">
-      <c r="C12" s="60"/>
-      <c r="D12" s="59">
-        <v>5</v>
+      <c r="C12" s="59"/>
+      <c r="D12" s="58">
+        <v>3</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="42" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
@@ -5617,8 +5669,8 @@
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
       <c r="L12" s="43"/>
-      <c r="M12" s="44" t="s">
-        <v>71</v>
+      <c r="M12" s="61" t="s">
+        <v>73</v>
       </c>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
@@ -5644,10 +5696,10 @@
       <c r="AE12" s="46"/>
       <c r="AF12" s="46"/>
       <c r="AG12" s="47"/>
-      <c r="AH12" s="71" t="s">
+      <c r="AH12" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="AI12" s="72"/>
+      <c r="AI12" s="81"/>
       <c r="AJ12" s="39"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
@@ -5669,13 +5721,13 @@
       </c>
     </row>
     <row r="13" spans="2:81">
-      <c r="C13" s="60"/>
-      <c r="D13" s="59">
-        <v>6</v>
+      <c r="C13" s="59"/>
+      <c r="D13" s="58">
+        <v>4</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="42" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -5684,7 +5736,7 @@
       <c r="K13" s="42"/>
       <c r="L13" s="43"/>
       <c r="M13" s="44" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -5710,10 +5762,10 @@
       <c r="AE13" s="46"/>
       <c r="AF13" s="46"/>
       <c r="AG13" s="47"/>
-      <c r="AH13" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI13" s="72"/>
+      <c r="AH13" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI13" s="81"/>
       <c r="AJ13" s="39"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
@@ -5735,13 +5787,13 @@
       </c>
     </row>
     <row r="14" spans="2:81">
-      <c r="C14" s="61"/>
-      <c r="D14" s="59">
-        <v>7</v>
+      <c r="C14" s="60"/>
+      <c r="D14" s="58">
+        <v>5</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="52" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -5749,8 +5801,8 @@
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
       <c r="L14" s="53"/>
-      <c r="M14" s="58" t="s">
-        <v>72</v>
+      <c r="M14" s="57" t="s">
+        <v>77</v>
       </c>
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
@@ -5758,28 +5810,28 @@
       <c r="Q14" s="52"/>
       <c r="R14" s="52"/>
       <c r="S14" s="53"/>
-      <c r="T14" s="55" t="s">
+      <c r="T14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="71" t="s">
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="AI14" s="72"/>
+      <c r="AI14" s="81"/>
       <c r="AJ14" s="49"/>
       <c r="AK14" s="50"/>
       <c r="AL14" s="50"/>
@@ -5800,7 +5852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" ht="19" customHeight="1"/>
+    <row r="42" ht="18.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="AJ9:AY9"/>
@@ -5822,13 +5874,13 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI9 AH9:AH14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI9 AH9:AH14" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref003_コメント一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref003_コメント一覧取得.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246C3B1E-8641-4AD3-A513-2C28EDC9FF44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131835F6-58DA-4EBB-9579-DD41E6601CFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">レスポンス!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(コメント一覧取得)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(コメント一覧取得)'!$A$1:$BV$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
@@ -44,6 +44,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -360,32 +365,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>maxCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最大取得数</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Number</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -475,22 +455,6 @@
   </si>
   <si>
     <t>ユーザサムネイルURL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TODO:「リクエストを無限スクロールするために必要な項目を確認する」</t>
-  </si>
-  <si>
-    <t>取得数の最大値</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>サイダイチ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -576,6 +540,94 @@
   </si>
   <si>
     <t>Ref003</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取得数</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取得するページ</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーId</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエスト
+・ページと取得数をリクエスト項目に追加
+レスポンス
+・コメント.ユーザーIDを追加</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yyyy-MM-dd HH:mm:ss形式</t>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -941,7 +993,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1079,6 +1131,48 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1089,6 +1183,105 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,106 +1296,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2900,7 +3000,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2019年5月6日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2972,7 +3072,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3762,7 +3862,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2019年1月14日</a:t>
+              <a:t>2019年5月6日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -4191,34 +4291,34 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
@@ -4278,33 +4378,33 @@
       </c>
     </row>
     <row r="27" spans="2:51">
-      <c r="AO27" s="66">
+      <c r="AO27" s="75">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43479</v>
-      </c>
-      <c r="AP27" s="67"/>
-      <c r="AQ27" s="67"/>
-      <c r="AR27" s="67"/>
-      <c r="AS27" s="67"/>
-      <c r="AT27" s="67"/>
-      <c r="AU27" s="67"/>
-      <c r="AV27" s="67"/>
-      <c r="AW27" s="67"/>
-      <c r="AX27" s="67"/>
-      <c r="AY27" s="67"/>
+        <v>43591</v>
+      </c>
+      <c r="AP27" s="76"/>
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="76"/>
+      <c r="AS27" s="76"/>
+      <c r="AT27" s="76"/>
+      <c r="AU27" s="76"/>
+      <c r="AV27" s="76"/>
+      <c r="AW27" s="76"/>
+      <c r="AX27" s="76"/>
+      <c r="AY27" s="76"/>
     </row>
     <row r="28" spans="2:51">
-      <c r="AR28" s="68" t="str">
+      <c r="AR28" s="77" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="AS28" s="68"/>
-      <c r="AT28" s="68"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
+        <v>1.0.1</v>
+      </c>
+      <c r="AS28" s="77"/>
+      <c r="AT28" s="77"/>
+      <c r="AU28" s="77"/>
+      <c r="AV28" s="77"/>
+      <c r="AW28" s="77"/>
+      <c r="AX28" s="77"/>
+      <c r="AY28" s="77"/>
     </row>
     <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
@@ -4318,7 +4418,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4348,7 +4448,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="64"/>
+      <c r="A1" s="61"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4393,28 +4493,36 @@
         <v>43472</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="93.75">
       <c r="B6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="D6" s="36">
         <v>43479</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75">
+      <c r="B7" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="36">
+        <v>43591</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="34"/>
@@ -4527,7 +4635,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4580,7 +4688,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4596,7 +4704,7 @@
         <v>43467</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -4607,7 +4715,7 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:81">
@@ -4654,15 +4762,15 @@
       <c r="AH10" s="19"/>
     </row>
     <row r="11" spans="2:81" ht="19.5">
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -4747,7 +4855,7 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -4764,7 +4872,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="17"/>
       <c r="T16" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
@@ -4792,7 +4900,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4846,7 +4954,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -4856,10 +4964,14 @@
         <v>43107</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="CB3" s="11"/>
-      <c r="CC3" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="CB3" s="11">
+        <v>43591</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
     <row r="6" spans="2:81">
@@ -4923,31 +5035,31 @@
         <v>13</v>
       </c>
       <c r="AH8" s="19"/>
-      <c r="AI8" s="75" t="s">
+      <c r="AI8" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="75"/>
-      <c r="AQ8" s="75"/>
-      <c r="AR8" s="75"/>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="75"/>
-      <c r="AU8" s="75"/>
-      <c r="AV8" s="75"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="75"/>
-      <c r="AY8" s="75"/>
-      <c r="AZ8" s="75"/>
-      <c r="BA8" s="75"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="75"/>
-      <c r="BD8" s="75"/>
-      <c r="BE8" s="75"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
       <c r="BX8" s="9" t="s">
         <v>36</v>
       </c>
@@ -4956,75 +5068,75 @@
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="74">
+      <c r="C9" s="88">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74" t="s">
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="62"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="87"/>
+      <c r="BA9" s="87"/>
+      <c r="BB9" s="87"/>
+      <c r="BC9" s="87"/>
+      <c r="BD9" s="87"/>
+      <c r="BE9" s="87"/>
+      <c r="BF9" s="59"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -5033,79 +5145,77 @@
       </c>
     </row>
     <row r="10" spans="2:81" ht="18.95" customHeight="1">
-      <c r="C10" s="74">
+      <c r="C10" s="86">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="76" t="s">
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="78"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="78"/>
-      <c r="BC10" s="78"/>
-      <c r="BD10" s="78"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="63" t="s">
-        <v>70</v>
-      </c>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="84"/>
+      <c r="BD10" s="84"/>
+      <c r="BE10" s="85"/>
+      <c r="BF10" s="60"/>
       <c r="BX10" s="9" t="s">
         <v>42</v>
       </c>
@@ -5114,6 +5224,77 @@
       </c>
     </row>
     <row r="11" spans="2:81">
+      <c r="C11" s="86">
+        <f>ROW()-ROW($C$8)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="84"/>
+      <c r="BC11" s="84"/>
+      <c r="BD11" s="84"/>
+      <c r="BE11" s="85"/>
+      <c r="BF11" s="60"/>
       <c r="CA11" s="9" t="s">
         <v>35</v>
       </c>
@@ -5168,93 +5349,93 @@
         <v>13</v>
       </c>
       <c r="AH13" s="19"/>
-      <c r="AI13" s="75" t="s">
+      <c r="AI13" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="75"/>
-      <c r="AP13" s="75"/>
-      <c r="AQ13" s="75"/>
-      <c r="AR13" s="75"/>
-      <c r="AS13" s="75"/>
-      <c r="AT13" s="75"/>
-      <c r="AU13" s="75"/>
-      <c r="AV13" s="75"/>
-      <c r="AW13" s="75"/>
-      <c r="AX13" s="75"/>
-      <c r="AY13" s="75"/>
-      <c r="AZ13" s="75"/>
-      <c r="BA13" s="75"/>
-      <c r="BB13" s="75"/>
-      <c r="BC13" s="75"/>
-      <c r="BD13" s="75"/>
-      <c r="BE13" s="75"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="89"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="89"/>
+      <c r="AO13" s="89"/>
+      <c r="AP13" s="89"/>
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="89"/>
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="89"/>
+      <c r="AY13" s="89"/>
+      <c r="AZ13" s="89"/>
+      <c r="BA13" s="89"/>
+      <c r="BB13" s="89"/>
+      <c r="BC13" s="89"/>
+      <c r="BD13" s="89"/>
+      <c r="BE13" s="89"/>
     </row>
     <row r="14" spans="2:81">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="73"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="73"/>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="73"/>
-      <c r="AW14" s="73"/>
-      <c r="AX14" s="73"/>
-      <c r="AY14" s="73"/>
-      <c r="AZ14" s="73"/>
-      <c r="BA14" s="73"/>
-      <c r="BB14" s="73"/>
-      <c r="BC14" s="73"/>
-      <c r="BD14" s="73"/>
-      <c r="BE14" s="73"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="87"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="87"/>
+      <c r="AZ14" s="87"/>
+      <c r="BA14" s="87"/>
+      <c r="BB14" s="87"/>
+      <c r="BC14" s="87"/>
+      <c r="BD14" s="87"/>
+      <c r="BE14" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="30">
     <mergeCell ref="AI8:BE8"/>
     <mergeCell ref="AI13:BE13"/>
     <mergeCell ref="AI14:BE14"/>
@@ -5278,15 +5459,22 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:K10"/>
     <mergeCell ref="L10:R10"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:BE11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:Y11"/>
+    <mergeCell ref="Z11:AF11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG14:AH14 AG9:AH10" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG14:AH14 AG9:AH11" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5301,7 +5489,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:CC42"/>
+  <dimension ref="B1:CC43"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -5340,7 +5528,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="BX3" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BY3" s="9" t="str">
         <f ca="1">REPLACE(LEFT(CELL("filename",$A$1),FIND(".x",CELL("filename",$A$1))-1),1,FIND("[",CELL("filename",$A$1)),)</f>
@@ -5350,13 +5538,13 @@
         <v>43471</v>
       </c>
       <c r="CA3" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CB3" s="11">
-        <v>43479</v>
+        <v>43591</v>
       </c>
       <c r="CC3" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -5453,62 +5641,62 @@
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="92" t="s">
+      <c r="F9" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI9" s="81"/>
-      <c r="AJ9" s="91"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="91"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="108"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="107"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
       <c r="BX9" s="9" t="s">
         <v>31</v>
       </c>
@@ -5522,62 +5710,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="88" t="s">
+      <c r="F10" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="80" t="s">
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="AI10" s="81"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="84"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="96"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="96"/>
+      <c r="AQ10" s="96"/>
+      <c r="AR10" s="96"/>
+      <c r="AS10" s="96"/>
+      <c r="AT10" s="96"/>
+      <c r="AU10" s="96"/>
+      <c r="AV10" s="96"/>
+      <c r="AW10" s="96"/>
+      <c r="AX10" s="96"/>
+      <c r="AY10" s="97"/>
       <c r="BX10" s="9" t="s">
         <v>42</v>
       </c>
@@ -5586,13 +5774,13 @@
       </c>
     </row>
     <row r="11" spans="2:81">
-      <c r="C11" s="59"/>
-      <c r="D11" s="58">
+      <c r="C11" s="56"/>
+      <c r="D11" s="55">
         <v>2</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -5601,7 +5789,7 @@
       <c r="K11" s="42"/>
       <c r="L11" s="43"/>
       <c r="M11" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -5627,10 +5815,10 @@
       <c r="AE11" s="46"/>
       <c r="AF11" s="46"/>
       <c r="AG11" s="47"/>
-      <c r="AH11" s="80" t="s">
+      <c r="AH11" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="AI11" s="81"/>
+      <c r="AI11" s="92"/>
       <c r="AJ11" s="39"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
@@ -5655,79 +5843,76 @@
       </c>
     </row>
     <row r="12" spans="2:81">
-      <c r="C12" s="59"/>
-      <c r="D12" s="58">
+      <c r="C12" s="56"/>
+      <c r="D12" s="69">
         <v>3</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="40"/>
-      <c r="AU12" s="40"/>
-      <c r="AV12" s="40"/>
-      <c r="AW12" s="40"/>
-      <c r="AX12" s="40"/>
-      <c r="AY12" s="41"/>
-      <c r="CA12" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="74"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="65"/>
     </row>
     <row r="13" spans="2:81">
-      <c r="C13" s="59"/>
-      <c r="D13" s="58">
+      <c r="C13" s="56"/>
+      <c r="D13" s="55">
         <v>4</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
@@ -5735,8 +5920,8 @@
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
       <c r="L13" s="43"/>
-      <c r="M13" s="44" t="s">
-        <v>69</v>
+      <c r="M13" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -5762,10 +5947,10 @@
       <c r="AE13" s="46"/>
       <c r="AF13" s="46"/>
       <c r="AG13" s="47"/>
-      <c r="AH13" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI13" s="81"/>
+      <c r="AH13" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI13" s="94"/>
       <c r="AJ13" s="39"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
@@ -5783,78 +5968,147 @@
       <c r="AX13" s="40"/>
       <c r="AY13" s="41"/>
       <c r="CA13" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:81">
-      <c r="C14" s="60"/>
-      <c r="D14" s="58">
+      <c r="C14" s="56"/>
+      <c r="D14" s="55">
         <v>5</v>
       </c>
       <c r="E14" s="25"/>
-      <c r="F14" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="54" t="s">
+      <c r="F14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="50"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="51"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="41"/>
       <c r="CA14" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" ht="18.95" customHeight="1"/>
+    <row r="15" spans="2:81">
+      <c r="C15" s="57"/>
+      <c r="D15" s="55">
+        <v>6</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK15" s="96"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="96"/>
+      <c r="AO15" s="96"/>
+      <c r="AP15" s="96"/>
+      <c r="AQ15" s="96"/>
+      <c r="AR15" s="96"/>
+      <c r="AS15" s="96"/>
+      <c r="AT15" s="96"/>
+      <c r="AU15" s="96"/>
+      <c r="AV15" s="96"/>
+      <c r="AW15" s="96"/>
+      <c r="AX15" s="96"/>
+      <c r="AY15" s="97"/>
+      <c r="CA15" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" ht="18.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="AJ15:AY15"/>
     <mergeCell ref="AJ9:AY9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="M9:S9"/>
@@ -5866,20 +6120,21 @@
     <mergeCell ref="M10:S10"/>
     <mergeCell ref="T10:Z10"/>
     <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
     <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
     <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AH13:AI13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI9 AH9:AH14" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI9 AH9:AH15" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
